--- a/match_deadlines_times.xlsx
+++ b/match_deadlines_times.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\sos\euro-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8840B44A-D2D1-409A-8A02-E4F8CF61674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587465A2-F6E9-40F0-9346-669AB489C13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match_deadlines (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -247,51 +258,27 @@
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Group_F_3_Germany_Hungary', '2021-06-20');</t>
   </si>
   <si>
-    <t>2020_Round of 16_A</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_A', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_B</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_B', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_C</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_C', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_D</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_D', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_E</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_E', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_F</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_F', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_G</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_G', '2021-06-26');</t>
   </si>
   <si>
-    <t>2020_Round of 16_H</t>
-  </si>
-  <si>
     <t>INSERT INTO `match_deadlines` (`Match_ID`,`deadline`) VALUES ('2020_Round of 16_H', '2021-06-26');</t>
   </si>
   <si>
@@ -482,12 +469,36 @@
   </si>
   <si>
     <t>CET</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_A</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_B</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_C</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_D</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_E</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_F</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_G</t>
+  </si>
+  <si>
+    <t>2020_Round_of_16_H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1327,17 +1338,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1376,7 +1388,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>2021</v>
@@ -1393,14 +1405,14 @@
         <v>2021-6-11 19:00:00</v>
       </c>
       <c r="L2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M2" t="str">
         <f>_xlfn.CONCAT(E2," ",G2," ",C2,":00")</f>
         <v>11 June 21:00</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1425,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H3">
         <v>2021</v>
@@ -1442,7 +1454,7 @@
         <v>2021-6-12 13:00:00</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M52" si="4">_xlfn.CONCAT(E3," ",G3," ",C3,":00")</f>
@@ -1471,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H4">
         <v>2021</v>
@@ -1488,7 +1500,7 @@
         <v>2021-6-16 16:00:00</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="4"/>
@@ -1517,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H5">
         <v>2021</v>
@@ -1534,7 +1546,7 @@
         <v>2021-6-16 19:00:00</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
@@ -1563,7 +1575,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H6">
         <v>2021</v>
@@ -1580,7 +1592,7 @@
         <v>2021-6-20 19:00:00</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
@@ -1609,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H7">
         <v>2021</v>
@@ -1626,7 +1638,7 @@
         <v>2021-6-20 19:00:00</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
@@ -1655,7 +1667,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H8">
         <v>2021</v>
@@ -1672,7 +1684,7 @@
         <v>2021-6-12 16:00:00</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
@@ -1701,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H9">
         <v>2021</v>
@@ -1718,7 +1730,7 @@
         <v>2021-6-12 19:00:00</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
@@ -1747,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H10">
         <v>2021</v>
@@ -1764,7 +1776,7 @@
         <v>2021-6-16 13:00:00</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
@@ -1793,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H11">
         <v>2021</v>
@@ -1810,7 +1822,7 @@
         <v>2021-6-17 16:00:00</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
@@ -1839,7 +1851,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H12">
         <v>2021</v>
@@ -1856,7 +1868,7 @@
         <v>2021-6-21 19:00:00</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
@@ -1885,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H13">
         <v>2021</v>
@@ -1902,7 +1914,7 @@
         <v>2021-6-21 19:00:00</v>
       </c>
       <c r="L13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
@@ -1931,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H14">
         <v>2021</v>
@@ -1948,7 +1960,7 @@
         <v>2021-6-13 16:00:00</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
@@ -1977,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H15">
         <v>2021</v>
@@ -1994,7 +2006,7 @@
         <v>2021-6-13 19:00:00</v>
       </c>
       <c r="L15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
@@ -2023,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H16">
         <v>2021</v>
@@ -2040,7 +2052,7 @@
         <v>2021-6-17 13:00:00</v>
       </c>
       <c r="L16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
@@ -2069,7 +2081,7 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H17">
         <v>2021</v>
@@ -2086,7 +2098,7 @@
         <v>2021-6-17 19:00:00</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="4"/>
@@ -2115,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H18">
         <v>2021</v>
@@ -2132,7 +2144,7 @@
         <v>2021-6-21 16:00:00</v>
       </c>
       <c r="L18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
@@ -2161,7 +2173,7 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H19">
         <v>2021</v>
@@ -2178,7 +2190,7 @@
         <v>2021-6-21 16:00:00</v>
       </c>
       <c r="L19" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
@@ -2207,7 +2219,7 @@
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H20">
         <v>2021</v>
@@ -2224,7 +2236,7 @@
         <v>2021-6-13 13:00:00</v>
       </c>
       <c r="L20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="4"/>
@@ -2253,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H21">
         <v>2021</v>
@@ -2270,7 +2282,7 @@
         <v>2021-6-14 13:00:00</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="4"/>
@@ -2299,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H22">
         <v>2021</v>
@@ -2316,7 +2328,7 @@
         <v>2021-6-18 16:00:00</v>
       </c>
       <c r="L22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="4"/>
@@ -2345,7 +2357,7 @@
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H23">
         <v>2021</v>
@@ -2362,7 +2374,7 @@
         <v>2021-6-18 19:00:00</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="4"/>
@@ -2391,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H24">
         <v>2021</v>
@@ -2408,7 +2420,7 @@
         <v>2021-6-22 19:00:00</v>
       </c>
       <c r="L24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="4"/>
@@ -2437,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H25">
         <v>2021</v>
@@ -2454,7 +2466,7 @@
         <v>2021-6-22 19:00:00</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="4"/>
@@ -2483,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H26">
         <v>2021</v>
@@ -2500,7 +2512,7 @@
         <v>2021-6-14 16:00:00</v>
       </c>
       <c r="L26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="4"/>
@@ -2529,7 +2541,7 @@
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H27">
         <v>2021</v>
@@ -2546,7 +2558,7 @@
         <v>2021-6-14 19:00:00</v>
       </c>
       <c r="L27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="4"/>
@@ -2575,7 +2587,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H28">
         <v>2021</v>
@@ -2592,7 +2604,7 @@
         <v>2021-6-18 13:00:00</v>
       </c>
       <c r="L28" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="4"/>
@@ -2621,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H29">
         <v>2021</v>
@@ -2638,7 +2650,7 @@
         <v>2021-6-19 19:00:00</v>
       </c>
       <c r="L29" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="4"/>
@@ -2667,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H30">
         <v>2021</v>
@@ -2684,7 +2696,7 @@
         <v>2021-6-23 16:00:00</v>
       </c>
       <c r="L30" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="4"/>
@@ -2713,7 +2725,7 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H31">
         <v>2021</v>
@@ -2730,7 +2742,7 @@
         <v>2021-6-23 16:00:00</v>
       </c>
       <c r="L31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="4"/>
@@ -2759,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H32">
         <v>2021</v>
@@ -2776,7 +2788,7 @@
         <v>2021-6-15 16:00:00</v>
       </c>
       <c r="L32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="4"/>
@@ -2805,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H33">
         <v>2021</v>
@@ -2822,7 +2834,7 @@
         <v>2021-6-15 19:00:00</v>
       </c>
       <c r="L33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="4"/>
@@ -2851,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H34">
         <v>2021</v>
@@ -2868,7 +2880,7 @@
         <v>2021-6-19 13:00:00</v>
       </c>
       <c r="L34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="4"/>
@@ -2897,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H35">
         <v>2021</v>
@@ -2914,7 +2926,7 @@
         <v>2021-6-19 16:00:00</v>
       </c>
       <c r="L35" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="4"/>
@@ -2943,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H36">
         <v>2021</v>
@@ -2960,7 +2972,7 @@
         <v>2021-6-23 19:00:00</v>
       </c>
       <c r="L36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="4"/>
@@ -2989,7 +3001,7 @@
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H37">
         <v>2021</v>
@@ -3006,7 +3018,7 @@
         <v>2021-6-23 19:00:00</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="4"/>
@@ -3015,7 +3027,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B38">
         <v>17</v>
@@ -3035,24 +3047,24 @@
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H38">
         <v>2021</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_A','2021-6-26 16:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_A','2021-6-26 16:00:00');</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-26 16:00:00</v>
       </c>
       <c r="L38" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="4"/>
@@ -3061,7 +3073,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -3081,24 +3093,24 @@
         <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H39">
         <v>2021</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_B','2021-6-26 19:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_B','2021-6-26 19:00:00');</v>
       </c>
       <c r="J39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-26 19:00:00</v>
       </c>
       <c r="L39" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="4"/>
@@ -3107,7 +3119,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B40">
         <v>17</v>
@@ -3127,24 +3139,24 @@
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H40">
         <v>2021</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_C','2021-6-27 16:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_C','2021-6-27 16:00:00');</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-27 16:00:00</v>
       </c>
       <c r="L40" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="4"/>
@@ -3153,7 +3165,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="B41">
         <v>20</v>
@@ -3173,24 +3185,24 @@
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H41">
         <v>2021</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_D','2021-6-27 19:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_D','2021-6-27 19:00:00');</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-27 19:00:00</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="4"/>
@@ -3199,7 +3211,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="B42">
         <v>17</v>
@@ -3219,24 +3231,24 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H42">
         <v>2021</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_E','2021-6-28 16:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_E','2021-6-28 16:00:00');</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-28 16:00:00</v>
       </c>
       <c r="L42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="4"/>
@@ -3245,7 +3257,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B43">
         <v>20</v>
@@ -3265,24 +3277,24 @@
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H43">
         <v>2021</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_F','2021-6-28 19:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_F','2021-6-28 19:00:00');</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-28 19:00:00</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="4"/>
@@ -3291,7 +3303,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B44">
         <v>17</v>
@@ -3311,24 +3323,24 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H44">
         <v>2021</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_G','2021-6-29 16:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_G','2021-6-29 16:00:00');</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-29 16:00:00</v>
       </c>
       <c r="L44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="4"/>
@@ -3337,7 +3349,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B45">
         <v>20</v>
@@ -3357,24 +3369,24 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H45">
         <v>2021</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round of 16_H','2021-6-29 19:00:00');</v>
+        <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Round_of_16_H','2021-6-29 19:00:00');</v>
       </c>
       <c r="J45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>2021-6-29 19:00:00</v>
       </c>
       <c r="L45" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="4"/>
@@ -3383,7 +3395,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>17</v>
@@ -3403,7 +3415,7 @@
         <v>7</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H46">
         <v>2021</v>
@@ -3413,14 +3425,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Quarterfinal_A','2021-7-2 16:00:00');</v>
       </c>
       <c r="J46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-2 16:00:00</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="4"/>
@@ -3429,7 +3441,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>20</v>
@@ -3449,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H47">
         <v>2021</v>
@@ -3459,14 +3471,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Quarterfinal_B','2021-7-2 19:00:00');</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-2 19:00:00</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M47" t="str">
         <f t="shared" si="4"/>
@@ -3475,7 +3487,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -3495,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H48">
         <v>2021</v>
@@ -3505,14 +3517,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Quarterfinal_C','2021-7-3 16:00:00');</v>
       </c>
       <c r="J48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-3 16:00:00</v>
       </c>
       <c r="L48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="4"/>
@@ -3521,7 +3533,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>20</v>
@@ -3541,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H49">
         <v>2021</v>
@@ -3551,14 +3563,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Quarterfinal_D','2021-7-3 19:00:00');</v>
       </c>
       <c r="J49" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-3 19:00:00</v>
       </c>
       <c r="L49" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M49" t="str">
         <f t="shared" si="4"/>
@@ -3567,7 +3579,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>20</v>
@@ -3587,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H50">
         <v>2021</v>
@@ -3597,14 +3609,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Semifinal_A','2021-7-6 19:00:00');</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-6 19:00:00</v>
       </c>
       <c r="L50" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M50" t="str">
         <f t="shared" si="4"/>
@@ -3613,7 +3625,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B51">
         <v>20</v>
@@ -3633,7 +3645,7 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H51">
         <v>2021</v>
@@ -3643,14 +3655,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Semifinal_B','2021-7-7 19:00:00');</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-7 19:00:00</v>
       </c>
       <c r="L51" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M51" t="str">
         <f t="shared" si="4"/>
@@ -3659,7 +3671,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B52">
         <v>20</v>
@@ -3679,7 +3691,7 @@
         <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H52">
         <v>2021</v>
@@ -3689,14 +3701,14 @@
         <v>INSERT INTO `match_deadlines` (`Match_ID`, `date_time`) VALUES ('2020_Final_A','2021-7-11 19:00:00');</v>
       </c>
       <c r="J52" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K52" t="str">
         <f t="shared" si="3"/>
         <v>2021-7-11 19:00:00</v>
       </c>
       <c r="L52" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="4"/>
